--- a/differences_6_0.65.xlsx
+++ b/differences_6_0.65.xlsx
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.177</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.09800000000000009</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02899999999999997</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.148</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.174</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.168</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.1269999999999999</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.09199999999999997</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.09599999999999997</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.121</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.03999999999999998</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.065</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.109</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.04499999999999993</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.02299999999999996</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.08399999999999996</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01300000000000001</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.111</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>-0.04799999999999993</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.05800000000000005</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.01099999999999995</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.07099999999999995</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.115</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.001000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1251,10 +1251,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>-0.04299999999999993</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02400000000000002</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.03400000000000003</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0.066</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03900000000000003</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.02400000000000002</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.0119999999999999</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1364,13 +1364,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.08399999999999996</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03200000000000003</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.09800000000000009</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02300000000000002</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.03800000000000003</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>-0.01800000000000002</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.04999999999999993</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.062</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -1533,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>-0.02599999999999991</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.04599999999999993</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01300000000000001</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>-0.03999999999999992</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.02800000000000002</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1625,13 +1625,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-0.05399999999999994</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.1110000000000001</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1671,13 +1671,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.03400000000000003</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.04600000000000004</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.05100000000000005</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>0.02899999999999997</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -1757,13 +1757,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02800000000000002</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>-0.03300000000000003</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>0.02700000000000002</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.07299999999999995</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.005999999999999894</v>
+        <v>-0.04500000000000004</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.005000000000000004</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.131</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -1941,13 +1941,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.04200000000000004</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>-0.04200000000000004</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0.001000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-0.03199999999999992</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.04299999999999998</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -2033,13 +2033,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.07199999999999995</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-0.01899999999999991</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -2048,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-0.005000000000000004</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2085,19 +2085,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>-0.03999999999999992</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.02799999999999991</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>-0.01800000000000002</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.03100000000000003</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>0.007000000000000006</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>-0.01899999999999991</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.063</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.02900000000000003</v>
+        <v>-0.04899999999999993</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0.02700000000000002</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>-0.04699999999999999</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -2223,13 +2223,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>-0.03199999999999992</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.05499999999999994</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.122</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-0.04199999999999993</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.01900000000000002</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>0.057</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.02799999999999991</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>0.04799999999999999</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>0.01600000000000001</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -2413,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.06300000000000006</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -2447,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.05799999999999994</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-0.06399999999999995</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -2499,16 +2499,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>-0.01400000000000001</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.006000000000000005</v>
+        <v>0.01500000000000001</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -2551,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.01400000000000001</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.06900000000000001</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -2591,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.04999999999999993</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>-0.03300000000000003</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>0.09200000000000003</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>0.008000000000000007</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.05199999999999999</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.04499999999999993</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0.04999999999999999</v>
+        <v>-0.05599999999999999</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
@@ -2784,19 +2784,19 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>0.109</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>0.07700000000000001</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
@@ -2815,19 +2815,19 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>0.01300000000000001</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>-0.02899999999999991</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.04900000000000004</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>-0.04099999999999993</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -2879,16 +2879,16 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>-0.004000000000000004</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.05299999999999999</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>-0.01299999999999996</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0.04900000000000004</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2928,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>0.02399999999999997</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.03400000000000003</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>0.08500000000000002</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.07199999999999995</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
@@ -3051,13 +3051,13 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0.06600000000000006</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>0.03400000000000003</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3103,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.05399999999999994</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3118,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>0.03200000000000003</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
@@ -3137,13 +3137,13 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>0.03600000000000003</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.02900000000000003</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>0.03100000000000003</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.01500000000000001</v>
+        <v>-0.05999999999999994</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -3241,13 +3241,13 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.08800000000000008</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>0.03099999999999997</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>-0.03699999999999992</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -3256,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>-0.01400000000000001</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>0.173</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3302,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>0.03300000000000003</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
@@ -3327,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0.08399999999999996</v>
+        <v>-0.04200000000000004</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>-0.057</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>-0.04399999999999993</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -3382,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>0.01900000000000002</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0.058</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
@@ -3425,10 +3425,10 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.104</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.01200000000000001</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>0.07300000000000001</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>0.02400000000000002</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.02600000000000002</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>0.04399999999999993</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>0.113</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -3572,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>0.186</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
@@ -3609,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>0.147</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3649,10 +3649,10 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>-0.05699999999999994</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.004000000000000004</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>-0.01900000000000002</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -3692,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>0.03399999999999997</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -3738,16 +3738,16 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0.05099999999999999</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0.04099999999999993</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>-0.02199999999999991</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>0.04099999999999998</v>
+        <v>0</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3854,7 +3854,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>0.04400000000000004</v>
+        <v>0</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.007999999999999896</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.03200000000000003</v>
+        <v>0.05399999999999994</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3931,10 +3931,10 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="H76" t="n">
-        <v>-0.02900000000000003</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -3980,13 +3980,13 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>0.08699999999999997</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>0.09800000000000003</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
@@ -4017,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0.06600000000000006</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>0.04999999999999999</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>0.105</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -4124,13 +4124,13 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>0.114</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03300000000000003</v>
+        <v>0</v>
       </c>
       <c r="M80" t="n">
         <v>0</v>
@@ -4170,7 +4170,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>0.229</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01300000000000001</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -4222,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M82" t="n">
         <v>0</v>
@@ -4247,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0.02100000000000002</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
@@ -4256,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>0.08100000000000002</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -4299,10 +4299,10 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>0.119</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>0.118</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0.06399999999999995</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="K85" t="n">
         <v>0</v>
@@ -4379,13 +4379,13 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>0.02600000000000002</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>-0.02999999999999992</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -4400,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>0.07100000000000001</v>
       </c>
       <c r="K86" t="n">
         <v>0</v>
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>0.1040000000000001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -4474,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>0.04599999999999999</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
@@ -4492,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>0.139</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
@@ -4529,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>0.172</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4584,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>0.117</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
@@ -4612,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>0.04199999999999998</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>-0.002000000000000002</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -4661,16 +4661,16 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>-0.04400000000000004</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.133</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.07300000000000001</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -4713,10 +4713,10 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>0.142</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>0.03799999999999998</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -4753,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0.04700000000000004</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -4768,10 +4768,10 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>0.109</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>0.08099999999999996</v>
       </c>
       <c r="L94" t="n">
         <v>0</v>
@@ -4790,7 +4790,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>0.02899999999999991</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -4814,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>0.122</v>
       </c>
       <c r="K95" t="n">
         <v>0</v>
@@ -4836,7 +4836,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-0.02800000000000002</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -4845,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>-0.05699999999999994</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>-0.03400000000000003</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>0.03400000000000003</v>
+        <v>0</v>
       </c>
       <c r="M96" t="n">
         <v>0</v>
@@ -4897,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>0.161</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4943,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>0.08899999999999997</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4989,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>0.168</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -5044,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>0.169</v>
       </c>
       <c r="K100" t="n">
         <v>0</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.02700000000000002</v>
+        <v>0</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -5084,10 +5084,10 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>0.05099999999999999</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>0.01600000000000001</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>0.02200000000000002</v>
+        <v>0</v>
       </c>
       <c r="M101" t="n">
         <v>0</v>
